--- a/biology/Zoologie/Acridoxena_hewaniana/Acridoxena_hewaniana.xlsx
+++ b/biology/Zoologie/Acridoxena_hewaniana/Acridoxena_hewaniana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acridoxena hewaniana est une espèce d'orthoptères de la famille des Tettigoniidae, la seule du genre Acridoxena et de la sous-famille des Acridoxeninae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acridoxena hewaniana est une espèce d'orthoptères de la famille des Tettigoniidae, la seule du genre Acridoxena et de la sous-famille des Acridoxeninae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Afrique tropicale.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chez Ellatodon blanchardi, le pronotum de l'espèce se pare d'épines imitant les feuilles. De nombreux caractères permettent cependant de différencier les espèces : Les ailes d' Acridoxena sont relativement courtes et ne dépassent pas l'apex de l'abdomen tandis que celles d' Ellatodon le dépassent de plusieurs centimètres ; l'ovipositeur d' Acridoxena est court et mesure autant que le pronotum alors que celui d' Ellatodon est plus long que le corps ; pour finir, Acridoxena possède des extensions foliacées sur les pattes, très visibles sur les tibias des pattes avant.
 </t>
@@ -573,7 +589,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1865 : On Acridoxena a new Genus of the familly Gryllidae. Proceedings of the Royal Physical Society of Edinburgh, vol. 3, p. 309-310
 Zeuner, 1936 : The prothoracic tracheal apparatus of Saltatoria (Orthoptera). Proceedings of the Royal Entomological Society of London, vol. 11, n. 1/2, p. 11-22</t>
